--- a/Android/ExcelData/StoryTable.xlsx
+++ b/Android/ExcelData/StoryTable.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F18CA-759F-476A-9B7A-07C8226885D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC18A35E-1BED-4445-A876-B55E8A9D1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1545" windowWidth="31095" windowHeight="19485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40230" yWindow="900" windowWidth="31875" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
-    <sheet name="Story_Data" sheetId="1" r:id="rId2"/>
+    <sheet name="!Story_Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -189,11 +189,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>story_type</t>
+    <t>1 메인 스토리</t>
+  </si>
+  <si>
+    <t>#story_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 메인 스토리</t>
   </si>
 </sst>
 </file>
@@ -683,9 +683,7 @@
           <cell r="B4">
             <v>0</v>
           </cell>
-          <cell r="C4" t="str">
-            <v>0 NONE</v>
-          </cell>
+          <cell r="C4"/>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -1236,9 +1234,9 @@
         <f>'[1]@story_type'!$B4</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="4">
         <f>'[1]@story_type'!$C4</f>
-        <v>0 NONE</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -1536,7 +1534,7 @@
   <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1614,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>6</v>
@@ -1647,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>11</v>
@@ -1678,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
@@ -1709,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -1740,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1771,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>15</v>
@@ -1802,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>16</v>
@@ -1833,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>17</v>
@@ -1864,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>18</v>
@@ -1895,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
